--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel20/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2102,28 +2102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>412.7049460901072</v>
+        <v>539.9557226046358</v>
       </c>
       <c r="AB2" t="n">
-        <v>564.6811144977033</v>
+        <v>738.7912408329314</v>
       </c>
       <c r="AC2" t="n">
-        <v>510.7887414649636</v>
+        <v>668.2820417078543</v>
       </c>
       <c r="AD2" t="n">
-        <v>412704.9460901072</v>
+        <v>539955.7226046358</v>
       </c>
       <c r="AE2" t="n">
-        <v>564681.1144977034</v>
+        <v>738791.2408329314</v>
       </c>
       <c r="AF2" t="n">
         <v>6.141344330393589e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.55555555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>510788.7414649635</v>
+        <v>668282.0417078544</v>
       </c>
     </row>
     <row r="3">
@@ -2208,28 +2208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>276.2412703371436</v>
+        <v>374.0923176218463</v>
       </c>
       <c r="AB3" t="n">
-        <v>377.9654929800196</v>
+        <v>511.8496127584856</v>
       </c>
       <c r="AC3" t="n">
-        <v>341.8929968079069</v>
+        <v>462.9994041022584</v>
       </c>
       <c r="AD3" t="n">
-        <v>276241.2703371436</v>
+        <v>374092.3176218463</v>
       </c>
       <c r="AE3" t="n">
-        <v>377965.4929800197</v>
+        <v>511849.6127584857</v>
       </c>
       <c r="AF3" t="n">
         <v>8.416955953965723e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.64583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>341892.9968079069</v>
+        <v>462999.4041022584</v>
       </c>
     </row>
     <row r="4">
@@ -2314,28 +2314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>239.4582161325903</v>
+        <v>327.5207421469477</v>
       </c>
       <c r="AB4" t="n">
-        <v>327.6372954633724</v>
+        <v>448.1283286008253</v>
       </c>
       <c r="AC4" t="n">
-        <v>296.3680518262777</v>
+        <v>405.3595898712211</v>
       </c>
       <c r="AD4" t="n">
-        <v>239458.2161325903</v>
+        <v>327520.7421469477</v>
       </c>
       <c r="AE4" t="n">
-        <v>327637.2954633724</v>
+        <v>448128.3286008253</v>
       </c>
       <c r="AF4" t="n">
         <v>9.2752090953511e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.92129629629629</v>
       </c>
       <c r="AH4" t="n">
-        <v>296368.0518262777</v>
+        <v>405359.5898712211</v>
       </c>
     </row>
     <row r="5">
@@ -2420,28 +2420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>233.4492123585334</v>
+        <v>311.6900627136187</v>
       </c>
       <c r="AB5" t="n">
-        <v>319.4155114011751</v>
+        <v>426.4680945998586</v>
       </c>
       <c r="AC5" t="n">
-        <v>288.9309432956275</v>
+        <v>385.7665782029774</v>
       </c>
       <c r="AD5" t="n">
-        <v>233449.2123585334</v>
+        <v>311690.0627136187</v>
       </c>
       <c r="AE5" t="n">
-        <v>319415.5114011751</v>
+        <v>426468.0945998586</v>
       </c>
       <c r="AF5" t="n">
         <v>9.567576574072364e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.40046296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>288930.9432956275</v>
+        <v>385766.5782029774</v>
       </c>
     </row>
     <row r="6">
@@ -2526,28 +2526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>233.7966150662162</v>
+        <v>312.0374654213014</v>
       </c>
       <c r="AB6" t="n">
-        <v>319.8908431121521</v>
+        <v>426.9434263108359</v>
       </c>
       <c r="AC6" t="n">
-        <v>289.3609100152413</v>
+        <v>386.1965449225913</v>
       </c>
       <c r="AD6" t="n">
-        <v>233796.6150662162</v>
+        <v>312037.4654213014</v>
       </c>
       <c r="AE6" t="n">
-        <v>319890.8431121521</v>
+        <v>426943.4263108359</v>
       </c>
       <c r="AF6" t="n">
         <v>9.564864445327269e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.41203703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>289360.9100152413</v>
+        <v>386196.5449225912</v>
       </c>
     </row>
   </sheetData>
@@ -2823,28 +2823,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>338.0435671448914</v>
+        <v>444.4622879883762</v>
       </c>
       <c r="AB2" t="n">
-        <v>462.5261219972869</v>
+        <v>608.1329107179595</v>
       </c>
       <c r="AC2" t="n">
-        <v>418.3832780733543</v>
+        <v>550.0935592389375</v>
       </c>
       <c r="AD2" t="n">
-        <v>338043.5671448914</v>
+        <v>444462.2879883762</v>
       </c>
       <c r="AE2" t="n">
-        <v>462526.1219972869</v>
+        <v>608132.9107179595</v>
       </c>
       <c r="AF2" t="n">
         <v>7.673834471288407e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.38425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>418383.2780733543</v>
+        <v>550093.5592389375</v>
       </c>
     </row>
     <row r="3">
@@ -2929,28 +2929,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>243.9218089195798</v>
+        <v>330.9452660440706</v>
       </c>
       <c r="AB3" t="n">
-        <v>333.7445800343442</v>
+        <v>452.8139132762008</v>
       </c>
       <c r="AC3" t="n">
-        <v>301.8924657294257</v>
+        <v>409.5979889214381</v>
       </c>
       <c r="AD3" t="n">
-        <v>243921.8089195798</v>
+        <v>330945.2660440707</v>
       </c>
       <c r="AE3" t="n">
-        <v>333744.5800343442</v>
+        <v>452813.9132762008</v>
       </c>
       <c r="AF3" t="n">
         <v>9.956933025171286e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.24537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>301892.4657294257</v>
+        <v>409597.9889214381</v>
       </c>
     </row>
     <row r="4">
@@ -3035,28 +3035,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>225.9034711815825</v>
+        <v>303.2805445747458</v>
       </c>
       <c r="AB4" t="n">
-        <v>309.0910954282697</v>
+        <v>414.9618208804965</v>
       </c>
       <c r="AC4" t="n">
-        <v>279.5918750927643</v>
+        <v>375.3584470982345</v>
       </c>
       <c r="AD4" t="n">
-        <v>225903.4711815825</v>
+        <v>303280.5445747458</v>
       </c>
       <c r="AE4" t="n">
-        <v>309091.0954282698</v>
+        <v>414961.8208804965</v>
       </c>
       <c r="AF4" t="n">
         <v>1.045489096023536e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.42361111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>279591.8750927643</v>
+        <v>375358.4470982346</v>
       </c>
     </row>
   </sheetData>
@@ -3332,28 +3332,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>218.0231523448483</v>
+        <v>302.1210027759045</v>
       </c>
       <c r="AB2" t="n">
-        <v>298.3088955407246</v>
+        <v>413.3752846359479</v>
       </c>
       <c r="AC2" t="n">
-        <v>269.8387132295704</v>
+        <v>373.9233276461482</v>
       </c>
       <c r="AD2" t="n">
-        <v>218023.1523448483</v>
+        <v>302121.0027759045</v>
       </c>
       <c r="AE2" t="n">
-        <v>298308.8955407246</v>
+        <v>413375.284635948</v>
       </c>
       <c r="AF2" t="n">
         <v>1.380721535306828e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.36111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>269838.7132295704</v>
+        <v>373923.3276461482</v>
       </c>
     </row>
     <row r="3">
@@ -3438,28 +3438,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.4476917987919</v>
+        <v>302.545542229848</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.8897691509688</v>
+        <v>413.9561582461924</v>
       </c>
       <c r="AC3" t="n">
-        <v>270.3641490777143</v>
+        <v>374.4487634942922</v>
       </c>
       <c r="AD3" t="n">
-        <v>218447.6917987919</v>
+        <v>302545.542229848</v>
       </c>
       <c r="AE3" t="n">
-        <v>298889.7691509688</v>
+        <v>413956.1582461924</v>
       </c>
       <c r="AF3" t="n">
         <v>1.380825087350935e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.36111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>270364.1490777143</v>
+        <v>374448.7634942922</v>
       </c>
     </row>
   </sheetData>
@@ -3735,28 +3735,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.5226069990211</v>
+        <v>330.7984183476297</v>
       </c>
       <c r="AB2" t="n">
-        <v>335.9348625888617</v>
+        <v>452.6129897794671</v>
       </c>
       <c r="AC2" t="n">
-        <v>303.8737107910217</v>
+        <v>409.4162412812349</v>
       </c>
       <c r="AD2" t="n">
-        <v>245522.6069990211</v>
+        <v>330798.4183476297</v>
       </c>
       <c r="AE2" t="n">
-        <v>335934.8625888617</v>
+        <v>452612.9897794671</v>
       </c>
       <c r="AF2" t="n">
         <v>1.133396904885491e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.31018518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>303873.7107910216</v>
+        <v>409416.2412812349</v>
       </c>
     </row>
     <row r="3">
@@ -3841,28 +3841,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.6072125962254</v>
+        <v>299.9161783337572</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.6350560760354</v>
+        <v>410.3585465642127</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.6109384436147</v>
+        <v>371.1945028219608</v>
       </c>
       <c r="AD3" t="n">
-        <v>214607.2125962254</v>
+        <v>299916.1783337572</v>
       </c>
       <c r="AE3" t="n">
-        <v>293635.0560760354</v>
+        <v>410358.5465642127</v>
       </c>
       <c r="AF3" t="n">
         <v>1.238497165394859e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.75925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>265610.9384436147</v>
+        <v>371194.5028219608</v>
       </c>
     </row>
   </sheetData>
@@ -4138,28 +4138,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>224.2234000115236</v>
+        <v>307.4172689244166</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.7923479338875</v>
+        <v>420.6218696351141</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.5125168329327</v>
+        <v>380.4783087436399</v>
       </c>
       <c r="AD2" t="n">
-        <v>224223.4000115236</v>
+        <v>307417.2689244166</v>
       </c>
       <c r="AE2" t="n">
-        <v>306792.3479338875</v>
+        <v>420621.8696351142</v>
       </c>
       <c r="AF2" t="n">
         <v>1.49491788270499e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.36805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>277512.5168329327</v>
+        <v>380478.3087436399</v>
       </c>
     </row>
   </sheetData>
@@ -4435,28 +4435,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>358.9210480139481</v>
+        <v>475.3267071733841</v>
       </c>
       <c r="AB2" t="n">
-        <v>491.0916123717816</v>
+        <v>650.3629706889618</v>
       </c>
       <c r="AC2" t="n">
-        <v>444.222518138425</v>
+        <v>588.2932415565687</v>
       </c>
       <c r="AD2" t="n">
-        <v>358921.0480139481</v>
+        <v>475326.7071733841</v>
       </c>
       <c r="AE2" t="n">
-        <v>491091.6123717816</v>
+        <v>650362.9706889618</v>
       </c>
       <c r="AF2" t="n">
         <v>7.227390640930408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.18287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>444222.518138425</v>
+        <v>588293.2415565687</v>
       </c>
     </row>
     <row r="3">
@@ -4541,28 +4541,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>249.3555932774484</v>
+        <v>336.7359515668924</v>
       </c>
       <c r="AB3" t="n">
-        <v>341.1793235144235</v>
+        <v>460.7369846755408</v>
       </c>
       <c r="AC3" t="n">
-        <v>308.6176477264966</v>
+        <v>416.7648935065257</v>
       </c>
       <c r="AD3" t="n">
-        <v>249355.5932774484</v>
+        <v>336735.9515668924</v>
       </c>
       <c r="AE3" t="n">
-        <v>341179.3235144234</v>
+        <v>460736.9846755408</v>
       </c>
       <c r="AF3" t="n">
         <v>9.530917791217132e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.58101851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>308617.6477264966</v>
+        <v>416764.8935065257</v>
       </c>
     </row>
     <row r="4">
@@ -4647,28 +4647,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>227.5575362163605</v>
+        <v>305.161645999273</v>
       </c>
       <c r="AB4" t="n">
-        <v>311.3542601810511</v>
+        <v>417.5356268378725</v>
       </c>
       <c r="AC4" t="n">
-        <v>281.6390465779126</v>
+        <v>377.6866126273979</v>
       </c>
       <c r="AD4" t="n">
-        <v>227557.5362163605</v>
+        <v>305161.6459992731</v>
       </c>
       <c r="AE4" t="n">
-        <v>311354.2601810512</v>
+        <v>417535.6268378725</v>
       </c>
       <c r="AF4" t="n">
         <v>1.02304174243201e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.37731481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>281639.0465779126</v>
+        <v>377686.6126273979</v>
       </c>
     </row>
     <row r="5">
@@ -4753,28 +4753,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>227.9658603982741</v>
+        <v>305.5699701811867</v>
       </c>
       <c r="AB5" t="n">
-        <v>311.9129473407367</v>
+        <v>418.0943139975582</v>
       </c>
       <c r="AC5" t="n">
-        <v>282.1444134192002</v>
+        <v>378.1919794686856</v>
       </c>
       <c r="AD5" t="n">
-        <v>227965.8603982741</v>
+        <v>305569.9701811867</v>
       </c>
       <c r="AE5" t="n">
-        <v>311912.9473407366</v>
+        <v>418094.3139975582</v>
       </c>
       <c r="AF5" t="n">
         <v>1.021868911335315e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.40046296296297</v>
       </c>
       <c r="AH5" t="n">
-        <v>282144.4134192002</v>
+        <v>378191.9794686856</v>
       </c>
     </row>
   </sheetData>
@@ -5050,28 +5050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>232.0145645754936</v>
+        <v>323.8082629802962</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.4525630122276</v>
+        <v>443.0487508219911</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.1553359459053</v>
+        <v>400.7647998663668</v>
       </c>
       <c r="AD2" t="n">
-        <v>232014.5645754936</v>
+        <v>323808.2629802962</v>
       </c>
       <c r="AE2" t="n">
-        <v>317452.5630122276</v>
+        <v>443048.7508219911</v>
       </c>
       <c r="AF2" t="n">
         <v>1.561042598450973e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.24768518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>287155.3359459053</v>
+        <v>400764.7998663668</v>
       </c>
     </row>
   </sheetData>
@@ -5347,28 +5347,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>290.1566225100182</v>
+        <v>385.9737405382443</v>
       </c>
       <c r="AB2" t="n">
-        <v>397.0050917249574</v>
+        <v>528.1062997640863</v>
       </c>
       <c r="AC2" t="n">
-        <v>359.1154829708725</v>
+        <v>477.7045757164479</v>
       </c>
       <c r="AD2" t="n">
-        <v>290156.6225100182</v>
+        <v>385973.7405382443</v>
       </c>
       <c r="AE2" t="n">
-        <v>397005.0917249574</v>
+        <v>528106.2997640863</v>
       </c>
       <c r="AF2" t="n">
         <v>9.224839999208153e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.24305555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>359115.4829708725</v>
+        <v>477704.5757164479</v>
       </c>
     </row>
     <row r="3">
@@ -5453,28 +5453,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.4474895147843</v>
+        <v>306.7093181483436</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.6259806108368</v>
+        <v>419.6532201507072</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.8392203561502</v>
+        <v>379.6021058065165</v>
       </c>
       <c r="AD3" t="n">
-        <v>220447.4895147842</v>
+        <v>306709.3181483436</v>
       </c>
       <c r="AE3" t="n">
-        <v>301625.9806108368</v>
+        <v>419653.2201507072</v>
       </c>
       <c r="AF3" t="n">
         <v>1.130936729719628e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.51620370370371</v>
       </c>
       <c r="AH3" t="n">
-        <v>272839.2203561502</v>
+        <v>379602.1058065165</v>
       </c>
     </row>
     <row r="4">
@@ -5559,28 +5559,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>220.0245388183459</v>
+        <v>296.6647692793886</v>
       </c>
       <c r="AB4" t="n">
-        <v>301.0472808087023</v>
+        <v>405.9098252539817</v>
       </c>
       <c r="AC4" t="n">
-        <v>272.315750850921</v>
+        <v>367.1703612297586</v>
       </c>
       <c r="AD4" t="n">
-        <v>220024.5388183459</v>
+        <v>296664.7692793886</v>
       </c>
       <c r="AE4" t="n">
-        <v>301047.2808087023</v>
+        <v>405909.8252539817</v>
       </c>
       <c r="AF4" t="n">
         <v>1.135163867119573e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.44675925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>272315.750850921</v>
+        <v>367170.3612297586</v>
       </c>
     </row>
   </sheetData>
@@ -5856,28 +5856,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>318.0267737661059</v>
+        <v>424.1887685338353</v>
       </c>
       <c r="AB2" t="n">
-        <v>435.1382622178332</v>
+        <v>580.3937869957022</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.6092771921492</v>
+        <v>525.0018185526278</v>
       </c>
       <c r="AD2" t="n">
-        <v>318026.7737661059</v>
+        <v>424188.7685338353</v>
       </c>
       <c r="AE2" t="n">
-        <v>435138.2622178332</v>
+        <v>580393.7869957022</v>
       </c>
       <c r="AF2" t="n">
         <v>8.159491485313106e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.59722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>393609.2771921492</v>
+        <v>525001.8185526278</v>
       </c>
     </row>
     <row r="3">
@@ -5962,28 +5962,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>229.0996853166785</v>
+        <v>315.9253337987701</v>
       </c>
       <c r="AB3" t="n">
-        <v>313.4642966149218</v>
+        <v>432.262979345536</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.54770409599</v>
+        <v>391.0084072816991</v>
       </c>
       <c r="AD3" t="n">
-        <v>229099.6853166785</v>
+        <v>315925.3337987701</v>
       </c>
       <c r="AE3" t="n">
-        <v>313464.2966149218</v>
+        <v>432262.979345536</v>
       </c>
       <c r="AF3" t="n">
         <v>1.038036319254968e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.97916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>283547.7040959899</v>
+        <v>391008.4072816991</v>
       </c>
     </row>
     <row r="4">
@@ -6068,28 +6068,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.1709727457409</v>
+        <v>301.3123764054788</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.7206146359158</v>
+        <v>412.2688863618538</v>
       </c>
       <c r="AC4" t="n">
-        <v>277.4476296602411</v>
+        <v>372.9225224704938</v>
       </c>
       <c r="AD4" t="n">
-        <v>224170.9727457409</v>
+        <v>301312.3764054788</v>
       </c>
       <c r="AE4" t="n">
-        <v>306720.6146359157</v>
+        <v>412268.8863618538</v>
       </c>
       <c r="AF4" t="n">
         <v>1.072180146777593e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.43518518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>277447.6296602411</v>
+        <v>372922.5224704938</v>
       </c>
     </row>
   </sheetData>
@@ -6365,28 +6365,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.1148222957614</v>
+        <v>516.9975115750062</v>
       </c>
       <c r="AB2" t="n">
-        <v>533.7723105163547</v>
+        <v>707.3788036574045</v>
       </c>
       <c r="AC2" t="n">
-        <v>482.829830354816</v>
+        <v>639.8675634487273</v>
       </c>
       <c r="AD2" t="n">
-        <v>390114.8222957614</v>
+        <v>516997.5115750062</v>
       </c>
       <c r="AE2" t="n">
-        <v>533772.3105163546</v>
+        <v>707378.8036574045</v>
       </c>
       <c r="AF2" t="n">
         <v>6.494146265378459e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.67592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>482829.8303548159</v>
+        <v>639867.5634487274</v>
       </c>
     </row>
     <row r="3">
@@ -6471,28 +6471,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>271.280969427989</v>
+        <v>359.0791644112252</v>
       </c>
       <c r="AB3" t="n">
-        <v>371.1785904430826</v>
+        <v>491.3079542021394</v>
       </c>
       <c r="AC3" t="n">
-        <v>335.7538267236176</v>
+        <v>444.4182126081311</v>
       </c>
       <c r="AD3" t="n">
-        <v>271280.969427989</v>
+        <v>359079.1644112252</v>
       </c>
       <c r="AE3" t="n">
-        <v>371178.5904430826</v>
+        <v>491307.9542021394</v>
       </c>
       <c r="AF3" t="n">
         <v>8.722083246527824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.36805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>335753.8267236176</v>
+        <v>444418.2126081311</v>
       </c>
     </row>
     <row r="4">
@@ -6577,28 +6577,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>234.5481699203108</v>
+        <v>322.3795192924736</v>
       </c>
       <c r="AB4" t="n">
-        <v>320.9191536197839</v>
+        <v>441.0938806765893</v>
       </c>
       <c r="AC4" t="n">
-        <v>290.291080011268</v>
+        <v>398.9964997839646</v>
       </c>
       <c r="AD4" t="n">
-        <v>234548.1699203108</v>
+        <v>322379.5192924736</v>
       </c>
       <c r="AE4" t="n">
-        <v>320919.1536197839</v>
+        <v>441093.8806765893</v>
       </c>
       <c r="AF4" t="n">
         <v>9.628597342878164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.64351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>290291.080011268</v>
+        <v>398996.4997839646</v>
       </c>
     </row>
     <row r="5">
@@ -6683,28 +6683,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>231.3343172215702</v>
+        <v>309.3696772280381</v>
       </c>
       <c r="AB5" t="n">
-        <v>316.5218185721949</v>
+        <v>423.2932408103045</v>
       </c>
       <c r="AC5" t="n">
-        <v>286.313420448921</v>
+        <v>382.894728003163</v>
       </c>
       <c r="AD5" t="n">
-        <v>231334.3172215702</v>
+        <v>309369.6772280381</v>
       </c>
       <c r="AE5" t="n">
-        <v>316521.8185721949</v>
+        <v>423293.2408103045</v>
       </c>
       <c r="AF5" t="n">
         <v>9.792650367339856e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.36574074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>286313.420448921</v>
+        <v>382894.728003163</v>
       </c>
     </row>
   </sheetData>
@@ -6980,28 +6980,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>253.7801416694251</v>
+        <v>348.9433961427081</v>
       </c>
       <c r="AB2" t="n">
-        <v>347.2331858216216</v>
+        <v>477.4397488986172</v>
       </c>
       <c r="AC2" t="n">
-        <v>314.0937379117468</v>
+        <v>431.8735693546284</v>
       </c>
       <c r="AD2" t="n">
-        <v>253780.1416694251</v>
+        <v>348943.3961427081</v>
       </c>
       <c r="AE2" t="n">
-        <v>347233.1858216216</v>
+        <v>477439.7488986172</v>
       </c>
       <c r="AF2" t="n">
         <v>1.054665812369507e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.93518518518519</v>
       </c>
       <c r="AH2" t="n">
-        <v>314093.7379117468</v>
+        <v>431873.5693546284</v>
       </c>
     </row>
     <row r="3">
@@ -7086,28 +7086,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>216.7491418831405</v>
+        <v>302.3926543672169</v>
       </c>
       <c r="AB3" t="n">
-        <v>296.5657382216421</v>
+        <v>413.746970327604</v>
       </c>
       <c r="AC3" t="n">
-        <v>268.2619203984838</v>
+        <v>374.2595401770567</v>
       </c>
       <c r="AD3" t="n">
-        <v>216749.1418831405</v>
+        <v>302392.6543672169</v>
       </c>
       <c r="AE3" t="n">
-        <v>296565.7382216421</v>
+        <v>413746.970327604</v>
       </c>
       <c r="AF3" t="n">
         <v>1.196998839494993e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.68981481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>268261.9203984838</v>
+        <v>374259.5401770567</v>
       </c>
     </row>
   </sheetData>
@@ -7383,28 +7383,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.5640397248773</v>
+        <v>306.0709548162161</v>
       </c>
       <c r="AB2" t="n">
-        <v>303.1536938670041</v>
+        <v>418.7797832770877</v>
       </c>
       <c r="AC2" t="n">
-        <v>274.2211308033084</v>
+        <v>378.8120285222391</v>
       </c>
       <c r="AD2" t="n">
-        <v>221564.0397248773</v>
+        <v>306070.9548162161</v>
       </c>
       <c r="AE2" t="n">
-        <v>303153.6938670041</v>
+        <v>418779.7832770877</v>
       </c>
       <c r="AF2" t="n">
         <v>1.312578562830321e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.30324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>274221.1308033084</v>
+        <v>378812.0285222391</v>
       </c>
     </row>
     <row r="3">
@@ -7489,28 +7489,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.5056022063111</v>
+        <v>295.6799147665647</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.7054929591349</v>
+        <v>404.5623038608214</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.911144157523</v>
+        <v>365.9514453871035</v>
       </c>
       <c r="AD3" t="n">
-        <v>220505.6022063111</v>
+        <v>295679.9147665647</v>
       </c>
       <c r="AE3" t="n">
-        <v>301705.4929591349</v>
+        <v>404562.3038608214</v>
       </c>
       <c r="AF3" t="n">
         <v>1.326747385770644e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.11805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>272911.144157523</v>
+        <v>365951.4453871035</v>
       </c>
     </row>
   </sheetData>
@@ -12719,28 +12719,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.3891051476463</v>
+        <v>300.1428119065197</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.0731200764394</v>
+        <v>410.6686366168338</v>
       </c>
       <c r="AC2" t="n">
-        <v>267.8163170376652</v>
+        <v>371.4749983151739</v>
       </c>
       <c r="AD2" t="n">
-        <v>216389.1051476463</v>
+        <v>300142.8119065197</v>
       </c>
       <c r="AE2" t="n">
-        <v>296073.1200764394</v>
+        <v>410668.6366168338</v>
       </c>
       <c r="AF2" t="n">
         <v>1.436262833127321e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.75462962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>267816.3170376652</v>
+        <v>371474.9983151739</v>
       </c>
     </row>
   </sheetData>
@@ -13016,28 +13016,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.2756298690784</v>
+        <v>340.536334424379</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.7557169993838</v>
+        <v>465.9368361622127</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.3797327806071</v>
+        <v>421.4684784653471</v>
       </c>
       <c r="AD2" t="n">
-        <v>240275.6298690784</v>
+        <v>340536.334424379</v>
       </c>
       <c r="AE2" t="n">
-        <v>328755.7169993838</v>
+        <v>465936.8361622127</v>
       </c>
       <c r="AF2" t="n">
         <v>1.620287090230733e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.82175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>297379.7327806071</v>
+        <v>421468.4784653471</v>
       </c>
     </row>
   </sheetData>
@@ -13313,28 +13313,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.3682304731472</v>
+        <v>404.1588521687555</v>
       </c>
       <c r="AB2" t="n">
-        <v>408.2405760106861</v>
+        <v>552.9879717674553</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.2786684054724</v>
+        <v>500.2115758654616</v>
       </c>
       <c r="AD2" t="n">
-        <v>298368.2304731471</v>
+        <v>404158.8521687555</v>
       </c>
       <c r="AE2" t="n">
-        <v>408240.5760106861</v>
+        <v>552987.9717674553</v>
       </c>
       <c r="AF2" t="n">
         <v>8.69385232446017e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.84490740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>369278.6684054724</v>
+        <v>500211.5758654616</v>
       </c>
     </row>
     <row r="3">
@@ -13419,28 +13419,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>224.5694302999171</v>
+        <v>311.1191816110938</v>
       </c>
       <c r="AB3" t="n">
-        <v>307.265801840246</v>
+        <v>425.6869898898873</v>
       </c>
       <c r="AC3" t="n">
-        <v>277.9407849629653</v>
+        <v>385.0600210302384</v>
       </c>
       <c r="AD3" t="n">
-        <v>224569.4302999171</v>
+        <v>311119.1816110938</v>
       </c>
       <c r="AE3" t="n">
-        <v>307265.801840246</v>
+        <v>425686.9898898873</v>
       </c>
       <c r="AF3" t="n">
         <v>1.08411649491958e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.71296296296296</v>
       </c>
       <c r="AH3" t="n">
-        <v>277940.7849629653</v>
+        <v>385060.0210302384</v>
       </c>
     </row>
     <row r="4">
@@ -13525,28 +13525,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>222.2192705923004</v>
+        <v>299.1154323223362</v>
       </c>
       <c r="AB4" t="n">
-        <v>304.0502096465577</v>
+        <v>409.2629305449657</v>
       </c>
       <c r="AC4" t="n">
-        <v>275.0320843751296</v>
+        <v>370.203450857884</v>
       </c>
       <c r="AD4" t="n">
-        <v>222219.2705923004</v>
+        <v>299115.4323223362</v>
       </c>
       <c r="AE4" t="n">
-        <v>304050.2096465577</v>
+        <v>409262.9305449657</v>
       </c>
       <c r="AF4" t="n">
         <v>1.100339173248364e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.46990740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>275032.0843751295</v>
+        <v>370203.450857884</v>
       </c>
     </row>
   </sheetData>
@@ -13822,28 +13822,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.9694951027521</v>
+        <v>495.4734385736695</v>
       </c>
       <c r="AB2" t="n">
-        <v>504.8403409848818</v>
+        <v>677.9286174018926</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.6590873891527</v>
+        <v>613.2280616358456</v>
       </c>
       <c r="AD2" t="n">
-        <v>368969.4951027521</v>
+        <v>495473.4385736695</v>
       </c>
       <c r="AE2" t="n">
-        <v>504840.3409848819</v>
+        <v>677928.6174018926</v>
       </c>
       <c r="AF2" t="n">
         <v>6.854384211504564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.88888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>456659.0873891527</v>
+        <v>613228.0616358456</v>
       </c>
     </row>
     <row r="3">
@@ -13928,28 +13928,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.0984416709437</v>
+        <v>352.3933987629845</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.0369420429898</v>
+        <v>482.1601946870529</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.7253461709359</v>
+        <v>436.1435024222032</v>
       </c>
       <c r="AD3" t="n">
-        <v>255098.4416709437</v>
+        <v>352393.3987629845</v>
       </c>
       <c r="AE3" t="n">
-        <v>349036.9420429898</v>
+        <v>482160.1946870529</v>
       </c>
       <c r="AF3" t="n">
         <v>9.125501214556807e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.95138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>315725.3461709359</v>
+        <v>436143.5024222032</v>
       </c>
     </row>
     <row r="4">
@@ -14034,28 +14034,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>230.9911128987214</v>
+        <v>308.8144234346992</v>
       </c>
       <c r="AB4" t="n">
-        <v>316.0522312765673</v>
+        <v>422.5335180741896</v>
       </c>
       <c r="AC4" t="n">
-        <v>285.888649905718</v>
+        <v>382.2075121387054</v>
       </c>
       <c r="AD4" t="n">
-        <v>230991.1128987214</v>
+        <v>308814.4234346992</v>
       </c>
       <c r="AE4" t="n">
-        <v>316052.2312765673</v>
+        <v>422533.5180741896</v>
       </c>
       <c r="AF4" t="n">
         <v>9.929327499170838e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.49305555555556</v>
       </c>
       <c r="AH4" t="n">
-        <v>285888.6499057179</v>
+        <v>382207.5121387054</v>
       </c>
     </row>
     <row r="5">
@@ -14140,28 +14140,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>230.1962908820767</v>
+        <v>308.0196014180545</v>
       </c>
       <c r="AB5" t="n">
-        <v>314.964720728322</v>
+        <v>421.4460075259438</v>
       </c>
       <c r="AC5" t="n">
-        <v>284.9049298378663</v>
+        <v>381.2237920708536</v>
       </c>
       <c r="AD5" t="n">
-        <v>230196.2908820767</v>
+        <v>308019.6014180545</v>
       </c>
       <c r="AE5" t="n">
-        <v>314964.720728322</v>
+        <v>421446.0075259438</v>
       </c>
       <c r="AF5" t="n">
         <v>9.970785182922274e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.42361111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>284904.9298378663</v>
+        <v>381223.7920708536</v>
       </c>
     </row>
   </sheetData>
@@ -14437,28 +14437,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>277.7179920808824</v>
+        <v>386.0067045660238</v>
       </c>
       <c r="AB2" t="n">
-        <v>379.9860088181684</v>
+        <v>528.1514026011644</v>
       </c>
       <c r="AC2" t="n">
-        <v>343.7206774502746</v>
+        <v>477.7453740020577</v>
       </c>
       <c r="AD2" t="n">
-        <v>277717.9920808824</v>
+        <v>386006.7045660238</v>
       </c>
       <c r="AE2" t="n">
-        <v>379986.0088181684</v>
+        <v>528151.4026011644</v>
       </c>
       <c r="AF2" t="n">
         <v>1.632433016655953e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.34027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>343720.6774502746</v>
+        <v>477745.3740020577</v>
       </c>
     </row>
   </sheetData>
@@ -14734,28 +14734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.1477283978664</v>
+        <v>312.1356991425</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.7935430443428</v>
+        <v>427.0778340219458</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.13184349776</v>
+        <v>386.3181249503951</v>
       </c>
       <c r="AD2" t="n">
-        <v>227147.7283978664</v>
+        <v>312135.6991424999</v>
       </c>
       <c r="AE2" t="n">
-        <v>310793.5430443428</v>
+        <v>427077.8340219458</v>
       </c>
       <c r="AF2" t="n">
         <v>1.230492176653904e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.60416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>281131.84349776</v>
+        <v>386318.1249503951</v>
       </c>
     </row>
     <row r="3">
@@ -14840,28 +14840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>212.9939658819097</v>
+        <v>297.9477712077623</v>
       </c>
       <c r="AB3" t="n">
-        <v>291.4277407500877</v>
+        <v>407.6652850944329</v>
       </c>
       <c r="AC3" t="n">
-        <v>263.6142861943882</v>
+        <v>368.7582824468406</v>
       </c>
       <c r="AD3" t="n">
-        <v>212993.9658819097</v>
+        <v>297947.7712077623</v>
       </c>
       <c r="AE3" t="n">
-        <v>291427.7407500877</v>
+        <v>407665.2850944329</v>
       </c>
       <c r="AF3" t="n">
         <v>1.279354054792443e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.93287037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>263614.2861943882</v>
+        <v>368758.2824468405</v>
       </c>
     </row>
   </sheetData>
@@ -15137,28 +15137,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>271.2724354429196</v>
+        <v>366.8219149341414</v>
       </c>
       <c r="AB2" t="n">
-        <v>371.1669138682178</v>
+        <v>501.9019270536385</v>
       </c>
       <c r="AC2" t="n">
-        <v>335.7432645446697</v>
+        <v>454.0011115594173</v>
       </c>
       <c r="AD2" t="n">
-        <v>271272.4354429196</v>
+        <v>366821.9149341414</v>
       </c>
       <c r="AE2" t="n">
-        <v>371166.9138682178</v>
+        <v>501901.9270536385</v>
       </c>
       <c r="AF2" t="n">
         <v>9.877307114029653e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.52546296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>335743.2645446697</v>
+        <v>454001.1115594173</v>
       </c>
     </row>
     <row r="3">
@@ -15243,28 +15243,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>218.258747965753</v>
+        <v>304.2191140890746</v>
       </c>
       <c r="AB3" t="n">
-        <v>298.6312478629915</v>
+        <v>416.2460130967658</v>
       </c>
       <c r="AC3" t="n">
-        <v>270.1303006986246</v>
+        <v>376.5200778117582</v>
       </c>
       <c r="AD3" t="n">
-        <v>218258.747965753</v>
+        <v>304219.1140890746</v>
       </c>
       <c r="AE3" t="n">
-        <v>298631.2478629915</v>
+        <v>416246.0130967657</v>
       </c>
       <c r="AF3" t="n">
         <v>1.166397074754506e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.53935185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>270130.3006986246</v>
+        <v>376520.0778117582</v>
       </c>
     </row>
     <row r="4">
@@ -15349,28 +15349,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>218.6772135595145</v>
+        <v>304.6375796828361</v>
       </c>
       <c r="AB4" t="n">
-        <v>299.2038109497748</v>
+        <v>416.8185761835493</v>
       </c>
       <c r="AC4" t="n">
-        <v>270.6482191680028</v>
+        <v>377.0379962811365</v>
       </c>
       <c r="AD4" t="n">
-        <v>218677.2135595146</v>
+        <v>304637.5796828361</v>
       </c>
       <c r="AE4" t="n">
-        <v>299203.8109497748</v>
+        <v>416818.5761835494</v>
       </c>
       <c r="AF4" t="n">
         <v>1.165463917102232e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.55092592592593</v>
       </c>
       <c r="AH4" t="n">
-        <v>270648.2191680028</v>
+        <v>377037.9962811365</v>
       </c>
     </row>
   </sheetData>
